--- a/Kumbham_Module2Charts_2.xlsx
+++ b/Kumbham_Module2Charts_2.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s545694\Desktop\GITHUB_Masters\Masters_2nd Sem\Data_Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8D0AAC-623E-4907-BAD2-0A177CCEB0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94D2C20-9069-4294-B625-386F44A62241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Goal 3" sheetId="3" r:id="rId2"/>
-    <sheet name="Goal 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Goal 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Goal 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Goal 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Goal 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +135,51 @@
   <si>
     <t>201 - 250</t>
   </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Strongly Disagree</t>
+  </si>
+  <si>
+    <t>Strongly Agree</t>
+  </si>
+  <si>
+    <t>How much do you love existing company policies?</t>
+  </si>
+  <si>
+    <t>How much do you rate company work structure?</t>
+  </si>
+  <si>
+    <t>To what extent do you support company infrastructure?</t>
+  </si>
+  <si>
+    <t>How much do you rate company amenities?</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>Rank in 2005</t>
+  </si>
+  <si>
+    <t>Rank in 2010</t>
+  </si>
+  <si>
+    <t>Rank in 2015</t>
+  </si>
+  <si>
+    <t>Rank in 2020</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
 </sst>
 </file>
 
@@ -167,11 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,6 +1782,2210 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Survey responses in a company</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 4'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 4'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>How much do you love existing company policies?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>How much do you rate company work structure?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To what extent do you support company infrastructure?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>How much do you rate company amenities?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 4'!$C$6:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-291E-4DE8-B794-FECB176CC9BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 4'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 4'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>How much do you love existing company policies?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>How much do you rate company work structure?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To what extent do you support company infrastructure?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>How much do you rate company amenities?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 4'!$D$6:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-291E-4DE8-B794-FECB176CC9BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 4'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 4'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>How much do you love existing company policies?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>How much do you rate company work structure?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To what extent do you support company infrastructure?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>How much do you rate company amenities?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 4'!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-291E-4DE8-B794-FECB176CC9BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 4'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 4'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>How much do you love existing company policies?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>How much do you rate company work structure?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To what extent do you support company infrastructure?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>How much do you rate company amenities?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 4'!$F$6:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-291E-4DE8-B794-FECB176CC9BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="173674335"/>
+        <c:axId val="173674751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="173674335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173674751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173674751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173674335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Divergent chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 4'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 4'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>How much do you love existing company policies?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>How much do you rate company work structure?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To what extent do you support company infrastructure?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>How much do you rate company amenities?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 4'!$B$6:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE1F-4929-9960-BC09B7C033C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 4'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 4'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>How much do you love existing company policies?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>How much do you rate company work structure?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To what extent do you support company infrastructure?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>How much do you rate company amenities?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 4'!$C$6:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE1F-4929-9960-BC09B7C033C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 4'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 4'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>How much do you love existing company policies?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>How much do you rate company work structure?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To what extent do you support company infrastructure?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>How much do you rate company amenities?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 4'!$D$6:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE1F-4929-9960-BC09B7C033C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 4'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 4'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>How much do you love existing company policies?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>How much do you rate company work structure?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To what extent do you support company infrastructure?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>How much do you rate company amenities?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 4'!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FE1F-4929-9960-BC09B7C033C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 4'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 4'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>How much do you love existing company policies?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>How much do you rate company work structure?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To what extent do you support company infrastructure?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>How much do you rate company amenities?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 4'!$F$6:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FE1F-4929-9960-BC09B7C033C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 4'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Buffer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 4'!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>How much do you love existing company policies?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>How much do you rate company work structure?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>To what extent do you support company infrastructure?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>How much do you rate company amenities?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 4'!$G$6:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FE1F-4929-9960-BC09B7C033C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="259336639"/>
+        <c:axId val="259349951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="259336639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259349951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="259349951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259336639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rank</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Comparision using Bump Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 5'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tesla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 5'!$B$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Rank in 2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rank in 2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rank in 2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rank in 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 5'!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6334-42AA-A480-8BCD7C338D4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 5'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Microsoft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 5'!$B$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Rank in 2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rank in 2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rank in 2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rank in 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 5'!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6334-42AA-A480-8BCD7C338D4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 5'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 5'!$B$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Rank in 2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rank in 2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rank in 2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rank in 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 5'!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6334-42AA-A480-8BCD7C338D4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 5'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 5'!$B$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Rank in 2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rank in 2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rank in 2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rank in 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 5'!$B$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6334-42AA-A480-8BCD7C338D4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Goal 5'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Goal 5'!$B$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Rank in 2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rank in 2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rank in 2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rank in 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Goal 5'!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6334-42AA-A480-8BCD7C338D4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="283427407"/>
+        <c:axId val="283433647"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="283427407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="283433647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="283433647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="283427407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1814,6 +4066,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2790,6 +5162,1519 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3045,6 +6930,208 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6AD6FE-FB54-4DCE-8737-F97F81F6A6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211580" y="167640"/>
+          <a:ext cx="4861560" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Indicator chart of 5 companies which</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> shows performance analysis</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF66B1F6-88F9-49C1-8301-79B186977FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1897380" y="2377440"/>
+          <a:ext cx="8869680" cy="1463040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Goal 2 : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> compare </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>how 5 companies had performed for each quaters from Q1 to Q4 using indication chart.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Story : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Above indicator chart</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> shows how 5 companies had performed during each quater. Tesla had shown 10% increase from Q1 to Q2 and in Q3 performance had decreased to 75% and in Q4 performance was at 90%. Google on the other hand dropped it performance in Q2 and shown consistent increase in Q3 and Q4 from 78.5% to 92%. Facebook also dropped it's performance in Q2 from 90 to 75% a drastic drop in Q3 and Q4 there is a 1% decrease. Amazon on the other hand shown increase in performance in each quater. Reliance also shown increase in performance in each quater.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -3259,27 +7346,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6AD6FE-FB54-4DCE-8737-F97F81F6A6C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC05A17-972E-4C03-BDAC-DC125D67CB88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3287,8 +7374,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1211580" y="167640"/>
-          <a:ext cx="4861560" cy="281940"/>
+          <a:off x="1219200" y="160020"/>
+          <a:ext cx="6103620" cy="327660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3324,14 +7411,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>Indicator chart of 5 companies which</a:t>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Survey response of customers in a work environment using Divergent chart</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
-            <a:t> shows performance analysis</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3339,23 +7421,95 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282BCA80-4CFD-4C4C-B05A-9A44292C6649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208AC5D1-72AA-461E-BC00-CF8EFE0FDCD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
+        <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF66B1F6-88F9-49C1-8301-79B186977FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFBFD51-63CB-4A1C-960E-109D219EC44D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,8 +7517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1897380" y="2377440"/>
-          <a:ext cx="8869680" cy="1463040"/>
+          <a:off x="3611880" y="5128260"/>
+          <a:ext cx="7559040" cy="1836420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3403,7 +7557,240 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Goal 2 : </a:t>
+            <a:t>Goal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> 4 : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>To compare company survey responses using divergent chart.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Story : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>In the above chart we can see company survey responses of employees working in a company. Majority of people had opted and strongly agreed to support company infrastructure with 70%. 60% employees have strongly agreed to existing company policies. Next stands with 50% and 40% with strongly agree side for amenities and work structure. On the strongly disagree side 20% employees voted for amenities and next stands company work structure with 10% on the strongly disagree side. 20% employees voted for agree side for amenities, infrastructure and company policies.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068E8F36-FEB7-4043-B774-E37624D51304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="182880"/>
+          <a:ext cx="4861560" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Bump Chart to show company rank in</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> 4 years</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6517A386-C0FD-4F17-ACDC-5C098E25366A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E6F2B3-53A2-4709-93B4-9677B6F69AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="4015740"/>
+          <a:ext cx="8100060" cy="1668780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Goal 5 : </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400">
@@ -3417,37 +7804,23 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> compare </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>how 5 companies had performed for each quaters from Q1 to Q4 using indication chart.</a:t>
+            <a:t> compare Rank's of 5 companies in 4 years using Bump Chart.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Story : </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Above indicator chart</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> shows how 5 companies had performed during each quater. Tesla had shown 10% increase from Q1 to Q2 and in Q3 performance had decreased to 75% and in Q4 performance was at 90%. Google on the other hand dropped it performance in Q2 and shown consistent increase in Q3 and Q4 from 78.5% to 92%. Facebook also dropped it's performance in Q2 from 90 to 75% a drastic drop in Q3 and Q4 there is a 1% decrease. Amazon on the other hand shown increase in performance in each quater. Reliance also shown increase in performance in each quater.</a:t>
+            <a:t>Above bump chart shows how 5 gaint companies are placed in 5 years. Microsoft shows improvement in rank where it started 15 in 2005 and stood  7 in 2020. Google started with 8th position in 2005 and placed number 1 in 2020. Amazon started with 5th rank in 2005 and increased 1 position in each 5 years period and placed 2 in 2020. Apple company started with 4 in 2005 decreased to 4 positions and stood 8th in 2020. At last Tesla which started 10th in 2005 seen a great improvement till 2020 and placed 3rd in rank.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3854,98 +8227,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773D7FA4-843A-4A5A-865C-90D00D119D37}">
-  <dimension ref="A5:B13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD47DE4E-B441-435A-8CC3-33F4656AAD82}">
   <dimension ref="A5:H10"/>
   <sheetViews>
@@ -4103,6 +8384,38 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{699F679F-6D27-41AA-8BE9-13FCE8B66C37}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Goal 2'!B6:E6</xm:f>
+              <xm:sqref>H6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Goal 2'!B7:E7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Goal 2'!B8:E8</xm:f>
+              <xm:sqref>H8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Goal 2'!B9:E9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Goal 2'!B10:E10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4E5F4AD2-8BE2-4550-9D48-26B2D0728267}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -4135,40 +8448,358 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{699F679F-6D27-41AA-8BE9-13FCE8B66C37}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Goal 2'!B6:E6</xm:f>
-              <xm:sqref>H6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Goal 2'!B7:E7</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Goal 2'!B8:E8</xm:f>
-              <xm:sqref>H8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Goal 2'!B9:E9</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Goal 2'!B10:E10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773D7FA4-843A-4A5A-865C-90D00D119D37}">
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947508E9-28AF-4B42-900B-8ED6C1070805}">
+  <dimension ref="A5:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45ABF638-8259-411E-ACF2-436C7BB4FAB8}">
+  <dimension ref="A6:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>